--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rammy\Desktop\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838C97CE-709B-466A-8599-8F72C32CC29A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A284790-B9D2-4743-98D4-AD4AC2717BDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Url</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>C:\Rammy\Desktop\marsframework\MarsFramework\WorkSampleUpload\Test.txt</t>
+  </si>
+  <si>
+    <t>Anime</t>
   </si>
 </sst>
 </file>
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +766,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
